--- a/test_workshop_revised_v3.xlsx
+++ b/test_workshop_revised_v3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NadineElkojok\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShaijalEllikkal\Downloads\MOF111\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2222096-5D27-4284-9740-5842A3F55BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28AB190-D71F-4087-A2F2-1D5556DC4157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D8D8EA23-61E6-4A4F-95AD-F8854117B100}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{D8D8EA23-61E6-4A4F-95AD-F8854117B100}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -65,26 +65,13 @@
     <t>r.aloqla@mof.gov.sa</t>
   </si>
   <si>
-    <t>Image 1</t>
-  </si>
-  <si>
-    <t>Image 2</t>
-  </si>
-  <si>
-    <t>Image 3</t>
-  </si>
-  <si>
-    <t>Text 4</t>
-  </si>
-  <si>
-    <t>Text 1</t>
-  </si>
-  <si>
-    <t>Text 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text 3
-</t>
+    <t>Option1</t>
+  </si>
+  <si>
+    <t>Option2</t>
+  </si>
+  <si>
+    <t>Option3</t>
   </si>
 </sst>
 </file>
@@ -129,27 +116,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -160,7 +132,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -498,20 +470,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3659164F-733A-4B97-84D2-EBDDEA6E11A5}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="17" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="6" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,46 +494,13 @@
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -577,52 +516,22 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -633,12 +542,6 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" t="s">
         <v>6</v>
       </c>
     </row>
